--- a/GSD/Spring2023-SedimentBaskets_old/SPRING2023-SEDIMENT-BASKETS-SAND.xlsx
+++ b/GSD/Spring2023-SedimentBaskets_old/SPRING2023-SEDIMENT-BASKETS-SAND.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vandalsuidaho-my.sharepoint.com/personal/huck4481_vandals_uidaho_edu/Documents/Desktop/Research/La Jara Data/Fine GSD/Sieves/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\GSD\Spring2023-SedimentBaskets_old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1264" documentId="8_{EED7F829-477C-4568-9838-CBD2A61330DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A619AB09-1454-4F97-ABE0-98A261284800}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9069A563-8C20-4762-94B7-7CA6E20704D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" xr2:uid="{209A61C2-E5C5-4D6E-B44B-8FD127605137}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{209A61C2-E5C5-4D6E-B44B-8FD127605137}"/>
   </bookViews>
   <sheets>
     <sheet name="Dry GSD (with sand)" sheetId="1" r:id="rId1"/>
@@ -38,21 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="79">
   <si>
     <t>T25-A</t>
-  </si>
-  <si>
-    <t>T25-B</t>
-  </si>
-  <si>
-    <t>T25-C</t>
-  </si>
-  <si>
-    <t>T25-D</t>
-  </si>
-  <si>
-    <t>Temperature Probe 25 (1)</t>
   </si>
   <si>
     <t>Sieve Size (mm)</t>
@@ -67,16 +55,7 @@
     <t>pan</t>
   </si>
   <si>
-    <t>T0-C</t>
-  </si>
-  <si>
-    <t>T0-D</t>
-  </si>
-  <si>
     <t>T8-A</t>
-  </si>
-  <si>
-    <t>T8-B</t>
   </si>
   <si>
     <t>T6-A</t>
@@ -89,18 +68,6 @@
   </si>
   <si>
     <t>T6-D</t>
-  </si>
-  <si>
-    <t>T4-A</t>
-  </si>
-  <si>
-    <t>T4-B</t>
-  </si>
-  <si>
-    <t>T4-C</t>
-  </si>
-  <si>
-    <t>T4-D</t>
   </si>
   <si>
     <t>Percent Passing (%)</t>
@@ -127,16 +94,10 @@
     <t>SPT4B01</t>
   </si>
   <si>
-    <t>Temperature Probe 0</t>
-  </si>
-  <si>
     <t>Temperature Probe 8</t>
   </si>
   <si>
     <t>Temperature Probe 6</t>
-  </si>
-  <si>
-    <t>Temperature Probe 4</t>
   </si>
   <si>
     <t>D60</t>
@@ -273,6 +234,48 @@
   <si>
     <t>platykurtic (better sorted in the tails)</t>
   </si>
+  <si>
+    <t>Temperature Probe 1</t>
+  </si>
+  <si>
+    <t>T1-A</t>
+  </si>
+  <si>
+    <t>T1-B</t>
+  </si>
+  <si>
+    <t>T1-C</t>
+  </si>
+  <si>
+    <t>T1-D</t>
+  </si>
+  <si>
+    <t>Temperature Probe 2</t>
+  </si>
+  <si>
+    <t>T2-A</t>
+  </si>
+  <si>
+    <t>T2-B</t>
+  </si>
+  <si>
+    <t>Temperature Probe 3</t>
+  </si>
+  <si>
+    <t>T3-C</t>
+  </si>
+  <si>
+    <t>T3-D</t>
+  </si>
+  <si>
+    <t>T7-B</t>
+  </si>
+  <si>
+    <t>T8-C</t>
+  </si>
+  <si>
+    <t>T8-D</t>
+  </si>
 </sst>
 </file>
 
@@ -321,7 +324,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,6 +406,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,6 +952,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -961,43 +980,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9535,8 +9544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF34F7D3-8706-4D54-AB6D-9CA0A6634EF9}">
   <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N61" sqref="N61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9564,119 +9573,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="112" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="114"/>
+      <c r="A1" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="118"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="103" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="109" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="111"/>
+      <c r="A2" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="101" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J3" s="48" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K3" s="52" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L3" s="51" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M3" s="44" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N3" s="44" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="O3" s="59" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="P3" s="60" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="61" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R3" s="62" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="S3" s="62" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="T3" s="63" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -10413,7 +10422,7 @@
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B14" s="12">
         <f>(B15-B16)</f>
@@ -10432,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G14" s="31">
         <f>G15-G16</f>
@@ -10451,7 +10460,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="56" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L14" s="31">
         <f>L15-L16</f>
@@ -10470,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="67" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q14" s="31">
         <f>Q15-Q16</f>
@@ -10491,13 +10500,13 @@
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B15" s="20">
         <v>47.014299999999999</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D15" s="72">
         <f>A7+(10-E7)*((A6-A7)/(E6-E7))</f>
@@ -10505,19 +10514,19 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="32" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G15" s="33">
         <v>27.528300000000002</v>
       </c>
       <c r="K15" s="54" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L15" s="55">
         <v>14.5052</v>
       </c>
       <c r="P15" s="64" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q15" s="65">
         <v>29.554200000000002</v>
@@ -10529,13 +10538,13 @@
       <c r="T15" s="24"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="118"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="30">
         <f>SUM(B5:B13)</f>
         <v>46.396799999999985</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D16" s="73">
         <f>A5+(60-E5)*((A4-A5)/(E4-E5))</f>
@@ -10569,69 +10578,69 @@
     </row>
     <row r="17" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:22" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="112" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="114"/>
-      <c r="U18" s="117"/>
-      <c r="V18" s="117"/>
+      <c r="A18" s="116" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="117"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="118"/>
+      <c r="U18" s="110"/>
+      <c r="V18" s="110"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="106" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="111"/>
+      <c r="A19" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="101" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="103"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F20" s="60" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G20" s="61" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H20" s="62" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I20" s="62" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J20" s="63" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K20" s="43"/>
       <c r="N20" s="13"/>
@@ -10914,10 +10923,10 @@
         <f t="shared" si="16"/>
         <v>1.7243913192573501</v>
       </c>
-      <c r="K27" s="117"/>
-      <c r="L27" s="117"/>
-      <c r="M27" s="117"/>
-      <c r="N27" s="117"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="110"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
@@ -11054,7 +11063,7 @@
     </row>
     <row r="31" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="56" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B31" s="31">
         <f>B32-B33</f>
@@ -11073,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="67" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G31" s="31">
         <f>G32-G33</f>
@@ -11098,14 +11107,14 @@
     </row>
     <row r="32" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="54" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B32" s="55">
         <v>47.312199999999997</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="64" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G32" s="65">
         <v>38.784700000000001</v>
@@ -11149,38 +11158,38 @@
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="113"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="113"/>
-      <c r="J35" s="114"/>
+      <c r="A35" s="116" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="117"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="118"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="100" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="103" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="105"/>
+      <c r="A36" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="105"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="108"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="108"/>
+      <c r="J36" s="109"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -11188,34 +11197,34 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G37" s="35" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J37" s="37" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -11626,7 +11635,7 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B48" s="12">
         <f>(B49-B50)</f>
@@ -11645,7 +11654,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="40" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G48" s="31">
         <f>G49-G50</f>
@@ -11670,7 +11679,7 @@
     </row>
     <row r="49" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B49" s="20">
         <v>47.488500000000002</v>
@@ -11679,7 +11688,7 @@
       <c r="D49" s="3"/>
       <c r="E49" s="4"/>
       <c r="F49" s="32" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G49" s="33">
         <v>71.694199999999995</v>
@@ -11719,119 +11728,119 @@
       <c r="N51" s="1"/>
     </row>
     <row r="52" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="B52" s="113"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="113"/>
-      <c r="F52" s="113"/>
-      <c r="G52" s="113"/>
-      <c r="H52" s="113"/>
-      <c r="I52" s="113"/>
-      <c r="J52" s="113"/>
-      <c r="K52" s="113"/>
-      <c r="L52" s="113"/>
-      <c r="M52" s="113"/>
-      <c r="N52" s="113"/>
-      <c r="O52" s="113"/>
-      <c r="P52" s="113"/>
-      <c r="Q52" s="113"/>
-      <c r="R52" s="113"/>
-      <c r="S52" s="113"/>
-      <c r="T52" s="114"/>
+      <c r="A52" s="116" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="117"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="117"/>
+      <c r="E52" s="117"/>
+      <c r="F52" s="117"/>
+      <c r="G52" s="117"/>
+      <c r="H52" s="117"/>
+      <c r="I52" s="117"/>
+      <c r="J52" s="117"/>
+      <c r="K52" s="117"/>
+      <c r="L52" s="117"/>
+      <c r="M52" s="117"/>
+      <c r="N52" s="117"/>
+      <c r="O52" s="117"/>
+      <c r="P52" s="117"/>
+      <c r="Q52" s="117"/>
+      <c r="R52" s="117"/>
+      <c r="S52" s="117"/>
+      <c r="T52" s="118"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="101"/>
-      <c r="C53" s="101"/>
-      <c r="D53" s="101"/>
-      <c r="E53" s="102"/>
-      <c r="F53" s="103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="104"/>
-      <c r="H53" s="104"/>
-      <c r="I53" s="104"/>
-      <c r="J53" s="115"/>
-      <c r="K53" s="106" t="s">
-        <v>15</v>
-      </c>
-      <c r="L53" s="107"/>
-      <c r="M53" s="107"/>
-      <c r="N53" s="107"/>
-      <c r="O53" s="108"/>
-      <c r="P53" s="109" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q53" s="110"/>
-      <c r="R53" s="110"/>
-      <c r="S53" s="110"/>
-      <c r="T53" s="111"/>
+      <c r="A53" s="104" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="105"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="106"/>
+      <c r="F53" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="G53" s="108"/>
+      <c r="H53" s="108"/>
+      <c r="I53" s="108"/>
+      <c r="J53" s="114"/>
+      <c r="K53" s="111" t="s">
+        <v>44</v>
+      </c>
+      <c r="L53" s="112"/>
+      <c r="M53" s="112"/>
+      <c r="N53" s="112"/>
+      <c r="O53" s="115"/>
+      <c r="P53" s="101" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q53" s="102"/>
+      <c r="R53" s="102"/>
+      <c r="S53" s="102"/>
+      <c r="T53" s="103"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F54" s="34" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G54" s="35" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H54" s="36" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I54" s="36" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J54" s="48" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K54" s="52" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L54" s="51" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M54" s="44" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N54" s="44" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="O54" s="59" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="P54" s="60" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="61" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R54" s="62" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="S54" s="62" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="T54" s="63" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
@@ -12568,7 +12577,7 @@
     </row>
     <row r="65" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B65" s="12">
         <f>(B66-B67)</f>
@@ -12587,7 +12596,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="40" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G65" s="31">
         <f>G66-G67</f>
@@ -12606,7 +12615,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="56" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L65" s="31">
         <f>L66-L67</f>
@@ -12625,7 +12634,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="67" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q65" s="31">
         <f>Q66-Q67</f>
@@ -12646,7 +12655,7 @@
     </row>
     <row r="66" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B66" s="20">
         <v>21.8202</v>
@@ -12655,19 +12664,19 @@
       <c r="D66" s="3"/>
       <c r="E66" s="4"/>
       <c r="F66" s="32" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G66" s="33">
         <v>25.196200000000001</v>
       </c>
       <c r="K66" s="54" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L66" s="55">
         <v>14.8794</v>
       </c>
       <c r="P66" s="64" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q66" s="65">
         <v>17.0562</v>
@@ -12714,119 +12723,119 @@
     </row>
     <row r="68" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="B69" s="113"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="113"/>
-      <c r="F69" s="113"/>
-      <c r="G69" s="113"/>
-      <c r="H69" s="113"/>
-      <c r="I69" s="113"/>
-      <c r="J69" s="113"/>
-      <c r="K69" s="113"/>
-      <c r="L69" s="113"/>
-      <c r="M69" s="113"/>
-      <c r="N69" s="113"/>
-      <c r="O69" s="113"/>
-      <c r="P69" s="113"/>
-      <c r="Q69" s="113"/>
-      <c r="R69" s="113"/>
-      <c r="S69" s="113"/>
-      <c r="T69" s="114"/>
+      <c r="A69" s="116" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="117"/>
+      <c r="C69" s="117"/>
+      <c r="D69" s="117"/>
+      <c r="E69" s="117"/>
+      <c r="F69" s="117"/>
+      <c r="G69" s="117"/>
+      <c r="H69" s="117"/>
+      <c r="I69" s="117"/>
+      <c r="J69" s="117"/>
+      <c r="K69" s="117"/>
+      <c r="L69" s="117"/>
+      <c r="M69" s="117"/>
+      <c r="N69" s="117"/>
+      <c r="O69" s="117"/>
+      <c r="P69" s="117"/>
+      <c r="Q69" s="117"/>
+      <c r="R69" s="117"/>
+      <c r="S69" s="117"/>
+      <c r="T69" s="118"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="100" t="s">
-        <v>17</v>
-      </c>
-      <c r="B70" s="101"/>
-      <c r="C70" s="101"/>
-      <c r="D70" s="101"/>
-      <c r="E70" s="102"/>
-      <c r="F70" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" s="104"/>
-      <c r="H70" s="104"/>
-      <c r="I70" s="104"/>
-      <c r="J70" s="115"/>
-      <c r="K70" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="L70" s="107"/>
-      <c r="M70" s="107"/>
-      <c r="N70" s="107"/>
-      <c r="O70" s="108"/>
-      <c r="P70" s="109" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q70" s="110"/>
-      <c r="R70" s="110"/>
-      <c r="S70" s="110"/>
-      <c r="T70" s="111"/>
+      <c r="A70" s="104" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" s="105"/>
+      <c r="C70" s="105"/>
+      <c r="D70" s="105"/>
+      <c r="E70" s="106"/>
+      <c r="F70" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="G70" s="108"/>
+      <c r="H70" s="108"/>
+      <c r="I70" s="108"/>
+      <c r="J70" s="114"/>
+      <c r="K70" s="111" t="s">
+        <v>48</v>
+      </c>
+      <c r="L70" s="112"/>
+      <c r="M70" s="112"/>
+      <c r="N70" s="112"/>
+      <c r="O70" s="115"/>
+      <c r="P70" s="101" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q70" s="102"/>
+      <c r="R70" s="102"/>
+      <c r="S70" s="102"/>
+      <c r="T70" s="103"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F71" s="34" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G71" s="35" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H71" s="36" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I71" s="36" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J71" s="48" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K71" s="52" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L71" s="51" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M71" s="44" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N71" s="44" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="O71" s="59" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="P71" s="60" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q71" s="61" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R71" s="62" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="S71" s="62" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="T71" s="63" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
@@ -13563,7 +13572,7 @@
     </row>
     <row r="82" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B82" s="12">
         <f>(B83-B84)</f>
@@ -13582,7 +13591,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="40" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G82" s="31">
         <f>G83-G84</f>
@@ -13601,7 +13610,7 @@
         <v>0</v>
       </c>
       <c r="K82" s="56" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L82" s="31">
         <f>L83-L84</f>
@@ -13620,7 +13629,7 @@
         <v>0</v>
       </c>
       <c r="P82" s="67" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q82" s="31">
         <f>Q83-Q84</f>
@@ -13641,7 +13650,7 @@
     </row>
     <row r="83" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="19" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B83" s="20">
         <v>54.746600000000001</v>
@@ -13650,19 +13659,19 @@
       <c r="D83" s="3"/>
       <c r="E83" s="4"/>
       <c r="F83" s="32" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G83" s="33">
         <v>31.810600000000001</v>
       </c>
       <c r="K83" s="54" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L83" s="55">
         <v>24.152100000000001</v>
       </c>
       <c r="P83" s="64" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q83" s="65">
         <v>27.5703</v>
@@ -13709,92 +13718,92 @@
     </row>
     <row r="85" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="86" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="112" t="s">
-        <v>54</v>
-      </c>
-      <c r="B86" s="113"/>
-      <c r="C86" s="113"/>
-      <c r="D86" s="113"/>
-      <c r="E86" s="113"/>
-      <c r="F86" s="113"/>
-      <c r="G86" s="113"/>
-      <c r="H86" s="113"/>
-      <c r="I86" s="113"/>
-      <c r="J86" s="113"/>
-      <c r="K86" s="113"/>
-      <c r="L86" s="113"/>
-      <c r="M86" s="113"/>
-      <c r="N86" s="113"/>
-      <c r="O86" s="114"/>
+      <c r="A86" s="116" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" s="117"/>
+      <c r="C86" s="117"/>
+      <c r="D86" s="117"/>
+      <c r="E86" s="117"/>
+      <c r="F86" s="117"/>
+      <c r="G86" s="117"/>
+      <c r="H86" s="117"/>
+      <c r="I86" s="117"/>
+      <c r="J86" s="117"/>
+      <c r="K86" s="117"/>
+      <c r="L86" s="117"/>
+      <c r="M86" s="117"/>
+      <c r="N86" s="117"/>
+      <c r="O86" s="118"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87" s="100" t="s">
-        <v>56</v>
-      </c>
-      <c r="B87" s="101"/>
-      <c r="C87" s="101"/>
-      <c r="D87" s="101"/>
-      <c r="E87" s="102"/>
-      <c r="F87" s="106" t="s">
-        <v>57</v>
-      </c>
-      <c r="G87" s="107"/>
-      <c r="H87" s="107"/>
-      <c r="I87" s="107"/>
-      <c r="J87" s="108"/>
-      <c r="K87" s="109" t="s">
-        <v>58</v>
-      </c>
-      <c r="L87" s="110"/>
-      <c r="M87" s="110"/>
-      <c r="N87" s="110"/>
-      <c r="O87" s="111"/>
+      <c r="A87" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="105"/>
+      <c r="C87" s="105"/>
+      <c r="D87" s="105"/>
+      <c r="E87" s="106"/>
+      <c r="F87" s="111" t="s">
+        <v>77</v>
+      </c>
+      <c r="G87" s="112"/>
+      <c r="H87" s="112"/>
+      <c r="I87" s="112"/>
+      <c r="J87" s="115"/>
+      <c r="K87" s="101" t="s">
+        <v>78</v>
+      </c>
+      <c r="L87" s="102"/>
+      <c r="M87" s="102"/>
+      <c r="N87" s="102"/>
+      <c r="O87" s="103"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F88" s="52" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G88" s="51" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H88" s="44" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I88" s="44" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J88" s="59" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K88" s="60" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L88" s="61" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M88" s="62" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N88" s="62" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="O88" s="63" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
@@ -14353,7 +14362,7 @@
     </row>
     <row r="99" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B99" s="96">
         <f>B100-B101</f>
@@ -14372,7 +14381,7 @@
         <v>0</v>
       </c>
       <c r="F99" s="56" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G99" s="31">
         <f>G100-G101</f>
@@ -14391,7 +14400,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="67" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L99" s="31">
         <f>L100-L101</f>
@@ -14412,7 +14421,7 @@
     </row>
     <row r="100" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="19" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B100" s="20">
         <v>23.997399999999999</v>
@@ -14421,13 +14430,13 @@
       <c r="D100" s="3"/>
       <c r="E100" s="4"/>
       <c r="F100" s="54" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G100" s="55">
         <v>31.258299999999998</v>
       </c>
       <c r="K100" s="64" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L100" s="65">
         <v>35.043199999999999</v>
@@ -14475,119 +14484,119 @@
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="112" t="s">
-        <v>55</v>
-      </c>
-      <c r="B103" s="113"/>
-      <c r="C103" s="113"/>
-      <c r="D103" s="113"/>
-      <c r="E103" s="113"/>
-      <c r="F103" s="113"/>
-      <c r="G103" s="113"/>
-      <c r="H103" s="113"/>
-      <c r="I103" s="113"/>
-      <c r="J103" s="113"/>
-      <c r="K103" s="113"/>
-      <c r="L103" s="113"/>
-      <c r="M103" s="113"/>
-      <c r="N103" s="113"/>
-      <c r="O103" s="113"/>
-      <c r="P103" s="113"/>
-      <c r="Q103" s="113"/>
-      <c r="R103" s="113"/>
-      <c r="S103" s="113"/>
-      <c r="T103" s="114"/>
+      <c r="A103" s="116" t="s">
+        <v>19</v>
+      </c>
+      <c r="B103" s="117"/>
+      <c r="C103" s="117"/>
+      <c r="D103" s="117"/>
+      <c r="E103" s="117"/>
+      <c r="F103" s="117"/>
+      <c r="G103" s="117"/>
+      <c r="H103" s="117"/>
+      <c r="I103" s="117"/>
+      <c r="J103" s="117"/>
+      <c r="K103" s="117"/>
+      <c r="L103" s="117"/>
+      <c r="M103" s="117"/>
+      <c r="N103" s="117"/>
+      <c r="O103" s="117"/>
+      <c r="P103" s="117"/>
+      <c r="Q103" s="117"/>
+      <c r="R103" s="117"/>
+      <c r="S103" s="117"/>
+      <c r="T103" s="118"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A104" s="100" t="s">
-        <v>59</v>
-      </c>
-      <c r="B104" s="101"/>
-      <c r="C104" s="101"/>
-      <c r="D104" s="101"/>
-      <c r="E104" s="102"/>
-      <c r="F104" s="103" t="s">
-        <v>60</v>
-      </c>
-      <c r="G104" s="104"/>
-      <c r="H104" s="104"/>
-      <c r="I104" s="104"/>
-      <c r="J104" s="105"/>
-      <c r="K104" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="L104" s="107"/>
-      <c r="M104" s="107"/>
-      <c r="N104" s="107"/>
-      <c r="O104" s="108"/>
-      <c r="P104" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q104" s="110"/>
-      <c r="R104" s="110"/>
-      <c r="S104" s="110"/>
-      <c r="T104" s="111"/>
+      <c r="A104" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="105"/>
+      <c r="C104" s="105"/>
+      <c r="D104" s="105"/>
+      <c r="E104" s="106"/>
+      <c r="F104" s="107" t="s">
+        <v>7</v>
+      </c>
+      <c r="G104" s="108"/>
+      <c r="H104" s="108"/>
+      <c r="I104" s="108"/>
+      <c r="J104" s="109"/>
+      <c r="K104" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="L104" s="112"/>
+      <c r="M104" s="112"/>
+      <c r="N104" s="112"/>
+      <c r="O104" s="115"/>
+      <c r="P104" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q104" s="102"/>
+      <c r="R104" s="102"/>
+      <c r="S104" s="102"/>
+      <c r="T104" s="103"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E105" s="21" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F105" s="34" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G105" s="35" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H105" s="36" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I105" s="36" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J105" s="37" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K105" s="52" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L105" s="51" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M105" s="44" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N105" s="44" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="O105" s="59" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="P105" s="60" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q105" s="61" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R105" s="62" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="S105" s="62" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="T105" s="63" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
@@ -15324,7 +15333,7 @@
     </row>
     <row r="116" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B116" s="12">
         <f>B117-B118</f>
@@ -15343,7 +15352,7 @@
         <v>0</v>
       </c>
       <c r="F116" s="40" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G116" s="31">
         <f>G117-G118</f>
@@ -15362,7 +15371,7 @@
         <v>0</v>
       </c>
       <c r="K116" s="56" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L116" s="31">
         <f>L117-L118</f>
@@ -15381,7 +15390,7 @@
         <v>0</v>
       </c>
       <c r="P116" s="67" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q116" s="31">
         <f>Q117-Q118</f>
@@ -15402,7 +15411,7 @@
     </row>
     <row r="117" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="19" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B117" s="20">
         <v>63.384900000000002</v>
@@ -15411,7 +15420,7 @@
       <c r="D117" s="3"/>
       <c r="E117" s="4"/>
       <c r="F117" s="32" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G117" s="33">
         <v>62.840499999999999</v>
@@ -15419,13 +15428,13 @@
       <c r="H117" s="92"/>
       <c r="J117" s="24"/>
       <c r="K117" s="54" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L117" s="55">
         <v>29.180700000000002</v>
       </c>
       <c r="P117" s="64" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q117" s="65">
         <v>31.8675</v>
@@ -15505,23 +15514,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="K87:O87"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="A103:T103"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A52:T52"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="P2:T2"/>
     <mergeCell ref="A104:E104"/>
     <mergeCell ref="F104:J104"/>
     <mergeCell ref="K104:O104"/>
@@ -15538,6 +15530,23 @@
     <mergeCell ref="A86:O86"/>
     <mergeCell ref="A87:E87"/>
     <mergeCell ref="F87:J87"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A52:T52"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="K87:O87"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="A103:T103"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15566,38 +15575,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="102"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="106"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F2" s="97" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G2" s="97" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H2" s="97" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I2" s="97"/>
     </row>
@@ -15922,7 +15931,7 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B13" s="12">
         <f>(B14-B15)</f>
@@ -15955,13 +15964,13 @@
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B14" s="20">
         <v>47.014299999999999</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D14" s="72">
         <f>A6+(10-E6)*((A5-A6)/(E5-E6))</f>
@@ -15976,7 +15985,7 @@
         <v>46.396799999999985</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D15" s="73">
         <f>A4+(60-E4)*((A3-A4)/(E3-E4))</f>
@@ -15986,19 +15995,19 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -16014,7 +16023,7 @@
         <v>2.4390164509745964</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G18" s="1">
         <f>(D21+D28+D35)/3</f>
@@ -16038,7 +16047,7 @@
         <v>1.5269611511491425</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G19" s="1">
         <f>(D35-D21)/4 + (D38-D18)/6.6</f>
@@ -16049,7 +16058,7 @@
         <v>2.7663953603460727</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -16066,7 +16075,7 @@
         <v>1.1701339663057058</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="G20" s="1">
         <f>(D21+D35-2*D28)/(2*(D35-D21))+(D18+D38-2*D28)/(2*(D38-D18))</f>
@@ -16077,7 +16086,7 @@
         <v>1.1087865811737738</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -16093,7 +16102,7 @@
         <v>1.1082554949799299</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="G21" s="1">
         <f>(D38-D18)/(2.44*(D33-D23))</f>
@@ -16104,7 +16113,7 @@
         <v>0.56611294745484975</v>
       </c>
       <c r="I21" s="99" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -16383,136 +16392,136 @@
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C1" s="75" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D1" s="77"/>
       <c r="E1" s="75" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F1" s="78">
         <v>9.85</v>
       </c>
       <c r="G1" s="76"/>
       <c r="H1" s="74" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I1" s="75" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J1" s="75" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K1" s="77"/>
       <c r="L1" s="75" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M1" s="78">
         <v>9.14</v>
       </c>
       <c r="N1" s="76"/>
       <c r="O1" s="74" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="P1" s="75" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="75" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="R1" s="77"/>
       <c r="S1" s="75" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="T1" s="78">
         <v>7.92</v>
       </c>
       <c r="U1" s="76"/>
       <c r="V1" s="74" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="W1" s="75" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="X1" s="75" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="Y1" s="77"/>
       <c r="Z1" s="75" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AA1" s="78">
         <v>10.88</v>
       </c>
       <c r="AB1" s="76"/>
       <c r="AC1" s="74" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AD1" s="75" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AE1" s="75" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AF1" s="77"/>
       <c r="AG1" s="75" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AH1" s="78">
         <v>11.53</v>
       </c>
       <c r="AI1" s="76"/>
       <c r="AJ1" s="74" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AK1" s="75" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AL1" s="75" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AM1" s="77"/>
       <c r="AN1" s="75" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AO1" s="78">
         <v>8.98</v>
       </c>
       <c r="AP1" s="76"/>
       <c r="AQ1" s="74" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AR1" s="75" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AS1" s="75" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AT1" s="77"/>
       <c r="AU1" s="75" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AV1" s="78">
         <v>11.01</v>
       </c>
       <c r="AW1" s="76"/>
       <c r="AX1" s="74" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AY1" s="75" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AZ1" s="75" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="BA1" s="77"/>
       <c r="BB1" s="75" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="BC1" s="78">
         <v>7.92</v>
@@ -16530,7 +16539,7 @@
       </c>
       <c r="D2" s="76"/>
       <c r="E2" s="81" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F2" s="82">
         <v>25.06</v>
@@ -16547,7 +16556,7 @@
       </c>
       <c r="K2" s="76"/>
       <c r="L2" s="81" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M2" s="82">
         <v>21.99</v>
@@ -16564,7 +16573,7 @@
       </c>
       <c r="R2" s="76"/>
       <c r="S2" s="81" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="T2" s="82">
         <v>19.12</v>
@@ -16581,7 +16590,7 @@
       </c>
       <c r="Y2" s="76"/>
       <c r="Z2" s="81" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="AA2" s="82">
         <v>24.27</v>
@@ -16598,7 +16607,7 @@
       </c>
       <c r="AF2" s="76"/>
       <c r="AG2" s="81" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="AH2" s="82">
         <v>25.92</v>
@@ -16615,7 +16624,7 @@
       </c>
       <c r="AM2" s="76"/>
       <c r="AN2" s="81" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="AO2" s="82">
         <v>22.39</v>
@@ -16632,7 +16641,7 @@
       </c>
       <c r="AT2" s="76"/>
       <c r="AU2" s="81" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="AV2" s="82">
         <v>25.42</v>
@@ -16649,7 +16658,7 @@
       </c>
       <c r="BA2" s="76"/>
       <c r="BB2" s="81" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="BC2" s="82">
         <v>19.04</v>
@@ -16667,7 +16676,7 @@
       </c>
       <c r="D3" s="76"/>
       <c r="E3" s="81" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F3" s="82">
         <v>45.16</v>
@@ -16684,7 +16693,7 @@
       </c>
       <c r="K3" s="76"/>
       <c r="L3" s="81" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M3" s="82">
         <v>34.9</v>
@@ -16701,7 +16710,7 @@
       </c>
       <c r="R3" s="76"/>
       <c r="S3" s="81" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="T3" s="82">
         <v>32.18</v>
@@ -16718,7 +16727,7 @@
       </c>
       <c r="Y3" s="76"/>
       <c r="Z3" s="81" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AA3" s="82">
         <v>38.26</v>
@@ -16735,7 +16744,7 @@
       </c>
       <c r="AF3" s="76"/>
       <c r="AG3" s="81" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AH3" s="82">
         <v>40.57</v>
@@ -16752,7 +16761,7 @@
       </c>
       <c r="AM3" s="76"/>
       <c r="AN3" s="81" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AO3" s="82">
         <v>39.1</v>
@@ -16769,7 +16778,7 @@
       </c>
       <c r="AT3" s="76"/>
       <c r="AU3" s="81" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AV3" s="82">
         <v>39.590000000000003</v>
@@ -16786,7 +16795,7 @@
       </c>
       <c r="BA3" s="76"/>
       <c r="BB3" s="81" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="BC3" s="82">
         <v>30.4</v>
@@ -16804,7 +16813,7 @@
       </c>
       <c r="D4" s="76"/>
       <c r="E4" s="81" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F4" s="82">
         <v>74.650000000000006</v>
@@ -16821,7 +16830,7 @@
       </c>
       <c r="K4" s="76"/>
       <c r="L4" s="81" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M4" s="82">
         <v>52.04</v>
@@ -16838,7 +16847,7 @@
       </c>
       <c r="R4" s="76"/>
       <c r="S4" s="81" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="T4" s="82">
         <v>51.56</v>
@@ -16855,7 +16864,7 @@
       </c>
       <c r="Y4" s="76"/>
       <c r="Z4" s="81" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="AA4" s="82">
         <v>56.68</v>
@@ -16872,7 +16881,7 @@
       </c>
       <c r="AF4" s="76"/>
       <c r="AG4" s="81" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="AH4" s="82">
         <v>59.83</v>
@@ -16889,7 +16898,7 @@
       </c>
       <c r="AM4" s="76"/>
       <c r="AN4" s="81" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="AO4" s="82">
         <v>62.45</v>
@@ -16906,7 +16915,7 @@
       </c>
       <c r="AT4" s="76"/>
       <c r="AU4" s="81" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="AV4" s="82">
         <v>57.26</v>
@@ -16923,7 +16932,7 @@
       </c>
       <c r="BA4" s="76"/>
       <c r="BB4" s="81" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="BC4" s="82">
         <v>45.37</v>
@@ -16941,7 +16950,7 @@
       </c>
       <c r="D5" s="76"/>
       <c r="E5" s="81" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F5" s="82">
         <v>161.86000000000001</v>
@@ -16958,7 +16967,7 @@
       </c>
       <c r="K5" s="76"/>
       <c r="L5" s="81" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="M5" s="82">
         <v>102.57</v>
@@ -16975,7 +16984,7 @@
       </c>
       <c r="R5" s="76"/>
       <c r="S5" s="81" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="T5" s="82">
         <v>105.96</v>
@@ -16992,7 +17001,7 @@
       </c>
       <c r="Y5" s="76"/>
       <c r="Z5" s="81" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AA5" s="82">
         <v>112.9</v>
@@ -17009,7 +17018,7 @@
       </c>
       <c r="AF5" s="76"/>
       <c r="AG5" s="81" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AH5" s="82">
         <v>118.19</v>
@@ -17026,7 +17035,7 @@
       </c>
       <c r="AM5" s="76"/>
       <c r="AN5" s="81" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AO5" s="82">
         <v>123.78</v>
@@ -17043,7 +17052,7 @@
       </c>
       <c r="AT5" s="76"/>
       <c r="AU5" s="81" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AV5" s="82">
         <v>105.25</v>
@@ -17060,7 +17069,7 @@
       </c>
       <c r="BA5" s="76"/>
       <c r="BB5" s="81" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="BC5" s="82">
         <v>85.79</v>
@@ -17078,7 +17087,7 @@
       </c>
       <c r="D6" s="76"/>
       <c r="E6" s="81" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F6" s="82">
         <v>204.23</v>
@@ -17095,7 +17104,7 @@
       </c>
       <c r="K6" s="76"/>
       <c r="L6" s="81" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M6" s="82">
         <v>132.91</v>
@@ -17112,7 +17121,7 @@
       </c>
       <c r="R6" s="76"/>
       <c r="S6" s="81" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="T6" s="82">
         <v>134.69999999999999</v>
@@ -17129,7 +17138,7 @@
       </c>
       <c r="Y6" s="76"/>
       <c r="Z6" s="81" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="AA6" s="82">
         <v>146.41</v>
@@ -17146,7 +17155,7 @@
       </c>
       <c r="AF6" s="76"/>
       <c r="AG6" s="81" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="AH6" s="82">
         <v>152.68</v>
@@ -17163,7 +17172,7 @@
       </c>
       <c r="AM6" s="76"/>
       <c r="AN6" s="81" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="AO6" s="82">
         <v>154.44</v>
@@ -17180,7 +17189,7 @@
       </c>
       <c r="AT6" s="76"/>
       <c r="AU6" s="81" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="AV6" s="82">
         <v>130.41999999999999</v>
@@ -17197,7 +17206,7 @@
       </c>
       <c r="BA6" s="76"/>
       <c r="BB6" s="81" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="BC6" s="82">
         <v>107.46</v>
@@ -17215,7 +17224,7 @@
       </c>
       <c r="D7" s="76"/>
       <c r="E7" s="81" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F7" s="82">
         <v>287.02999999999997</v>
@@ -17232,7 +17241,7 @@
       </c>
       <c r="K7" s="76"/>
       <c r="L7" s="81" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M7" s="82">
         <v>209.81</v>
@@ -17249,7 +17258,7 @@
       </c>
       <c r="R7" s="76"/>
       <c r="S7" s="81" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="T7" s="82">
         <v>202.48</v>
@@ -17266,7 +17275,7 @@
       </c>
       <c r="Y7" s="76"/>
       <c r="Z7" s="81" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AA7" s="82">
         <v>226.76</v>
@@ -17283,7 +17292,7 @@
       </c>
       <c r="AF7" s="76"/>
       <c r="AG7" s="81" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AH7" s="82">
         <v>231.31</v>
@@ -17300,7 +17309,7 @@
       </c>
       <c r="AM7" s="76"/>
       <c r="AN7" s="81" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AO7" s="82">
         <v>223.2</v>
@@ -17317,7 +17326,7 @@
       </c>
       <c r="AT7" s="76"/>
       <c r="AU7" s="81" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AV7" s="82">
         <v>188.39</v>
@@ -17334,7 +17343,7 @@
       </c>
       <c r="BA7" s="76"/>
       <c r="BB7" s="81" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="BC7" s="82">
         <v>160.72</v>
@@ -17352,7 +17361,7 @@
       </c>
       <c r="D8" s="76"/>
       <c r="E8" s="81" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F8" s="82">
         <v>356.29</v>
@@ -17369,7 +17378,7 @@
       </c>
       <c r="K8" s="76"/>
       <c r="L8" s="81" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="M8" s="82">
         <v>291.68</v>
@@ -17386,7 +17395,7 @@
       </c>
       <c r="R8" s="76"/>
       <c r="S8" s="81" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="T8" s="82">
         <v>278.61</v>
@@ -17403,7 +17412,7 @@
       </c>
       <c r="Y8" s="76"/>
       <c r="Z8" s="81" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AA8" s="82">
         <v>302.38</v>
@@ -17420,7 +17429,7 @@
       </c>
       <c r="AF8" s="76"/>
       <c r="AG8" s="81" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AH8" s="82">
         <v>303.86</v>
@@ -17437,7 +17446,7 @@
       </c>
       <c r="AM8" s="76"/>
       <c r="AN8" s="81" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AO8" s="82">
         <v>295.52999999999997</v>
@@ -17454,7 +17463,7 @@
       </c>
       <c r="AT8" s="76"/>
       <c r="AU8" s="81" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AV8" s="82">
         <v>255.19</v>
@@ -17471,7 +17480,7 @@
       </c>
       <c r="BA8" s="76"/>
       <c r="BB8" s="81" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="BC8" s="82">
         <v>224.33</v>
@@ -17489,7 +17498,7 @@
       </c>
       <c r="D9" s="76"/>
       <c r="E9" s="81" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F9" s="82">
         <v>419.94</v>
@@ -17506,7 +17515,7 @@
       </c>
       <c r="K9" s="76"/>
       <c r="L9" s="81" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M9" s="82">
         <v>359.97</v>
@@ -17523,7 +17532,7 @@
       </c>
       <c r="R9" s="76"/>
       <c r="S9" s="81" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="T9" s="82">
         <v>349.17</v>
@@ -17540,7 +17549,7 @@
       </c>
       <c r="Y9" s="76"/>
       <c r="Z9" s="81" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AA9" s="82">
         <v>369.7</v>
@@ -17557,7 +17566,7 @@
       </c>
       <c r="AF9" s="76"/>
       <c r="AG9" s="81" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AH9" s="82">
         <v>369.15</v>
@@ -17574,7 +17583,7 @@
       </c>
       <c r="AM9" s="76"/>
       <c r="AN9" s="81" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AO9" s="82">
         <v>361.18</v>
@@ -17591,7 +17600,7 @@
       </c>
       <c r="AT9" s="76"/>
       <c r="AU9" s="81" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AV9" s="82">
         <v>327.2</v>
@@ -17608,7 +17617,7 @@
       </c>
       <c r="BA9" s="76"/>
       <c r="BB9" s="81" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="BC9" s="82">
         <v>302.33</v>
@@ -17626,7 +17635,7 @@
       </c>
       <c r="D10" s="76"/>
       <c r="E10" s="81" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F10" s="82">
         <v>481.52</v>
@@ -17643,7 +17652,7 @@
       </c>
       <c r="K10" s="76"/>
       <c r="L10" s="81" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M10" s="82">
         <v>432.2</v>
@@ -17660,7 +17669,7 @@
       </c>
       <c r="R10" s="76"/>
       <c r="S10" s="81" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="T10" s="82">
         <v>425.9</v>
@@ -17677,7 +17686,7 @@
       </c>
       <c r="Y10" s="76"/>
       <c r="Z10" s="81" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="AA10" s="82">
         <v>442.99</v>
@@ -17694,7 +17703,7 @@
       </c>
       <c r="AF10" s="76"/>
       <c r="AG10" s="81" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="AH10" s="82">
         <v>442.03</v>
@@ -17711,7 +17720,7 @@
       </c>
       <c r="AM10" s="76"/>
       <c r="AN10" s="81" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="AO10" s="82">
         <v>433.56</v>
@@ -17728,7 +17737,7 @@
       </c>
       <c r="AT10" s="76"/>
       <c r="AU10" s="81" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="AV10" s="82">
         <v>410.16</v>
@@ -17745,7 +17754,7 @@
       </c>
       <c r="BA10" s="76"/>
       <c r="BB10" s="81" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="BC10" s="82">
         <v>394.17</v>
@@ -17763,7 +17772,7 @@
       </c>
       <c r="D11" s="76"/>
       <c r="E11" s="81" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F11" s="82">
         <v>8.15</v>
@@ -17780,7 +17789,7 @@
       </c>
       <c r="K11" s="76"/>
       <c r="L11" s="81" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M11" s="82">
         <v>6.04</v>
@@ -17797,7 +17806,7 @@
       </c>
       <c r="R11" s="76"/>
       <c r="S11" s="81" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="T11" s="82">
         <v>7.05</v>
@@ -17814,7 +17823,7 @@
       </c>
       <c r="Y11" s="76"/>
       <c r="Z11" s="81" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="AA11" s="82">
         <v>6.03</v>
@@ -17831,7 +17840,7 @@
       </c>
       <c r="AF11" s="76"/>
       <c r="AG11" s="81" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="AH11" s="82">
         <v>5.89</v>
@@ -17848,7 +17857,7 @@
       </c>
       <c r="AM11" s="76"/>
       <c r="AN11" s="81" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="AO11" s="82">
         <v>6.9</v>
@@ -17865,7 +17874,7 @@
       </c>
       <c r="AT11" s="76"/>
       <c r="AU11" s="81" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="AV11" s="82">
         <v>5.13</v>
@@ -17882,7 +17891,7 @@
       </c>
       <c r="BA11" s="76"/>
       <c r="BB11" s="81" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="BC11" s="82">
         <v>5.64</v>
@@ -18110,10 +18119,10 @@
       </c>
       <c r="D14" s="76"/>
       <c r="E14" s="81" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F14" s="82" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G14" s="76"/>
       <c r="H14" s="79">
@@ -18127,10 +18136,10 @@
       </c>
       <c r="K14" s="76"/>
       <c r="L14" s="85" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M14" s="82" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N14" s="76"/>
       <c r="O14" s="79">
@@ -18144,10 +18153,10 @@
       </c>
       <c r="R14" s="76"/>
       <c r="S14" s="85" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="T14" s="82" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="U14" s="76"/>
       <c r="V14" s="79">
@@ -18161,10 +18170,10 @@
       </c>
       <c r="Y14" s="76"/>
       <c r="Z14" s="85" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AA14" s="82" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="AB14" s="76"/>
       <c r="AC14" s="79">
@@ -18178,10 +18187,10 @@
       </c>
       <c r="AF14" s="76"/>
       <c r="AG14" s="85" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AH14" s="86" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="AI14" s="76"/>
       <c r="AJ14" s="79">
@@ -18195,10 +18204,10 @@
       </c>
       <c r="AM14" s="76"/>
       <c r="AN14" s="85" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AO14" s="82" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AP14" s="76"/>
       <c r="AQ14" s="79">
@@ -18212,10 +18221,10 @@
       </c>
       <c r="AT14" s="76"/>
       <c r="AU14" s="85" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AV14" s="82" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AW14" s="76"/>
       <c r="AX14" s="79">
@@ -18229,10 +18238,10 @@
       </c>
       <c r="BA14" s="76"/>
       <c r="BB14" s="85" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="BC14" s="82" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
@@ -18300,7 +18309,7 @@
       <c r="AF15" s="76"/>
       <c r="AG15" s="76"/>
       <c r="AH15" s="84" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="AI15" s="76"/>
       <c r="AJ15" s="79">
@@ -18616,7 +18625,7 @@
       </c>
       <c r="AF18" s="76"/>
       <c r="AG18" s="21" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AH18" s="83"/>
       <c r="AI18" s="76"/>
